--- a/hardware/arm/EFM32/variants/efm32g222f/doc/EFM32G222F128PIN.xlsx
+++ b/hardware/arm/EFM32/variants/efm32g222f/doc/EFM32G222F128PIN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>VSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,22 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AD04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CS02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,53 +351,70 @@
   </si>
   <si>
     <t>CS10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFM32G222F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="0"/>
+      <color indexed="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,31 +423,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,19 +499,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -546,11 +540,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,7 +574,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,10 +592,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,6 +604,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,45 +614,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -716,7 +721,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -751,7 +755,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -927,14 +930,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="5.875" hidden="1" customWidth="1"/>
@@ -947,18 +950,26 @@
     <col min="12" max="12" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12">
+      <c r="F5" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="2:12">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12">
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
@@ -973,15 +984,15 @@
       <c r="J7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12">
       <c r="B8" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -995,15 +1006,15 @@
       <c r="J8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12">
       <c r="B9" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>2</v>
@@ -1017,10 +1028,10 @@
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12">
       <c r="C10" s="24"/>
       <c r="D10" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -1032,14 +1043,14 @@
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="22" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12">
       <c r="C11" s="24"/>
       <c r="D11" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -1055,7 +1066,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12">
       <c r="C12" s="23" t="s">
         <v>54</v>
       </c>
@@ -1076,7 +1087,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12">
       <c r="C13" s="23" t="s">
         <v>38</v>
       </c>
@@ -1092,14 +1103,14 @@
         <v>27</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12">
       <c r="C14" s="24"/>
       <c r="D14" s="8" t="s">
         <v>52</v>
@@ -1113,14 +1124,14 @@
         <v>28</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12">
       <c r="C15" s="23" t="s">
         <v>55</v>
       </c>
@@ -1136,14 +1147,14 @@
         <v>29</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12">
       <c r="C16" s="23" t="s">
         <v>56</v>
       </c>
@@ -1160,14 +1171,14 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12">
       <c r="C17" s="24"/>
       <c r="D17" s="13" t="s">
         <v>59</v>
@@ -1181,17 +1192,17 @@
         <v>25</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12">
       <c r="C18" s="24"/>
       <c r="D18" s="13" t="s">
         <v>60</v>
@@ -1205,17 +1216,17 @@
         <v>37</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12">
       <c r="C19" s="24"/>
       <c r="D19" s="13" t="s">
         <v>61</v>
@@ -1229,17 +1240,17 @@
         <v>36</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:12">
       <c r="C20" s="23" t="s">
         <v>62</v>
       </c>
@@ -1253,16 +1264,16 @@
         <v>24</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>43</v>
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12">
       <c r="C21" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="1" t="s">
@@ -1274,14 +1285,14 @@
         <v>48</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>42</v>
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12">
       <c r="C22" s="4"/>
       <c r="D22" s="7" t="s">
         <v>63</v>
@@ -1295,13 +1306,13 @@
         <v>49</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="K22" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12">
       <c r="C23" s="4"/>
       <c r="D23" s="8" t="s">
         <v>64</v>
@@ -1315,14 +1326,14 @@
         <v>23</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>47</v>
       </c>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12">
       <c r="C24" s="4"/>
       <c r="D24" s="8" t="s">
         <v>65</v>
@@ -1336,7 +1347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5" t="s">
@@ -1352,7 +1363,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12">
       <c r="C26" s="4"/>
       <c r="D26" s="13" t="s">
         <v>41</v>
@@ -1371,6 +1382,9 @@
       <c r="L26" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1378,12 +1392,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1391,12 +1405,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
